--- a/data/output/tables/importaciones.xlsx
+++ b/data/output/tables/importaciones.xlsx
@@ -28,19 +28,19 @@
     <t>knn</t>
   </si>
   <si>
+    <t>rf</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
     <t>lr</t>
   </si>
   <si>
-    <t>ar</t>
-  </si>
-  <si>
-    <t>rf</t>
+    <t>arima</t>
   </si>
   <si>
     <t>ann</t>
-  </si>
-  <si>
-    <t>arima</t>
   </si>
 </sst>
 </file>
@@ -417,10 +417,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>235.1036593763999</v>
+        <v>3.344761563974863</v>
       </c>
       <c r="C2">
-        <v>3383.920983241372</v>
+        <v>2400.412913518478</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -428,10 +428,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>5857.590137499287</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>13716.55047574054</v>
+        <v>3166.553711130254</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -439,10 +439,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1890.7263665727</v>
+        <v>1574.722822404037</v>
       </c>
       <c r="C4">
-        <v>17760.93220478799</v>
+        <v>6718.70874794677</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -450,10 +450,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1335.608904604724</v>
+        <v>2398.684044288565</v>
       </c>
       <c r="C5">
-        <v>20871.59656086074</v>
+        <v>8441.58783431789</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -461,10 +461,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>9858.808025962513</v>
+        <v>2453.099330202741</v>
       </c>
       <c r="C6">
-        <v>21341.42473059964</v>
+        <v>9715.005522229747</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -472,10 +472,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>10217.20880988576</v>
+        <v>41583.80690153155</v>
       </c>
       <c r="C7">
-        <v>52093.35244096564</v>
+        <v>51514.60594998995</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -483,10 +483,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>357763734.2228296</v>
+        <v>6153.000097560383</v>
       </c>
       <c r="C8">
-        <v>1384298188.589684</v>
+        <v>70379.72205993495</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/tables/importaciones.xlsx
+++ b/data/output/tables/importaciones.xlsx
@@ -22,19 +22,19 @@
     <t>test_rmse</t>
   </si>
   <si>
+    <t>rf</t>
+  </si>
+  <si>
+    <t>knn</t>
+  </si>
+  <si>
+    <t>lr</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
     <t>xgb</t>
-  </si>
-  <si>
-    <t>knn</t>
-  </si>
-  <si>
-    <t>rf</t>
-  </si>
-  <si>
-    <t>ar</t>
-  </si>
-  <si>
-    <t>lr</t>
   </si>
   <si>
     <t>arima</t>
@@ -417,10 +417,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>3.344761563974863</v>
+        <v>2332.018456633828</v>
       </c>
       <c r="C2">
-        <v>2400.412913518478</v>
+        <v>3000.897455044406</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -428,10 +428,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3717.796862954401</v>
       </c>
       <c r="C3">
-        <v>3166.553711130254</v>
+        <v>7493.98668264668</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -439,10 +439,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1574.722822404037</v>
+        <v>3030.161214717075</v>
       </c>
       <c r="C4">
-        <v>6718.70874794677</v>
+        <v>8599.966043642478</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -450,10 +450,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2398.684044288565</v>
+        <v>2319.276531129932</v>
       </c>
       <c r="C5">
-        <v>8441.58783431789</v>
+        <v>11020.33703466532</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -461,10 +461,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>2453.099330202741</v>
+        <v>4966.025207491517</v>
       </c>
       <c r="C6">
-        <v>9715.005522229747</v>
+        <v>13707.30498618116</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -472,10 +472,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>41583.80690153155</v>
+        <v>4986.480265707814</v>
       </c>
       <c r="C7">
-        <v>51514.60594998995</v>
+        <v>16296.1328128353</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -483,10 +483,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>6153.000097560383</v>
+        <v>44423.86472346506</v>
       </c>
       <c r="C8">
-        <v>70379.72205993495</v>
+        <v>65676.96523282283</v>
       </c>
     </row>
   </sheetData>
